--- a/NON-COVID Player Stats/WR/WR_aggregate.xlsx
+++ b/NON-COVID Player Stats/WR/WR_aggregate.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -62,19 +58,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,9 +439,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -468,15 +455,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Season Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Y/R</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Y/Tgt</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Succ%</t>
         </is>
@@ -488,273 +480,1072 @@
           <t>A.J. Brown</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>-5.263157894736855</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.9708737864077635</v>
+        <v>16.46666666666667</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.325272067714635</v>
+        <v>10.3</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>55.13333333333333</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Adam Thielen</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>-11.82795698924733</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-3.614457831325288</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0.8505467800729074</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>A.J. Brown</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>56.96666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Brandon Powell</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>5.904761904761894</v>
+          <t>A.J. Brown</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13.45029239766082</v>
+        <v>-0.8666666666666689</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.106027596223679</v>
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.833333333333336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Chris Godwin</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>-15.36523929471033</v>
+          <t>Adam Thielen</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-17.84511784511784</v>
+        <v>12.4</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-2.760084925690012</v>
+        <v>8.299999999999999</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>54.86666666666667</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Christian Kirk</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>13.57340720221606</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>7.083333333333353</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-2.032019704433488</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Adam Thielen</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10.93333333333333</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>55.33333333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>DeAndre Carter</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>-15.71428571428571</v>
+          <t>Adam Thielen</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-14.79820627802691</v>
+        <v>-1.466666666666669</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-26.09511889862329</v>
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.4666666666666686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>DeAndre Hopkins</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>-1.801801801801824</v>
+          <t>Brandon Powell</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-10.06535947712418</v>
+        <v>8.75</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-9.51570185395385</v>
+        <v>5.699999999999999</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45.9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>DJ Moore</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>-13.18181818181818</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>-5.791505791505791</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>-5.663939584644431</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Brandon Powell</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>9.266666666666666</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.466666666666666</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>46.86666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>-1.360544217687082</v>
+          <t>Brandon Powell</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-2.255639097744373</v>
+        <v>0.5166666666666657</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-5.183312262958269</v>
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.9666666666666686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Jakobi Meyers</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>-3.825136612021859</v>
+          <t>Chris Godwin</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-2.834008097166003</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.8464328899637278</v>
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>62.79999999999999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Kalif Raymond</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>-23.21083172147002</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>-12.35632183908046</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>6.209724663151738</v>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Chris Godwin</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>8.133333333333335</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>61.06666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Mecole Hardman</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>-41.50397686189443</v>
+          <t>Chris Godwin</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-36.29385964912281</v>
+        <v>-2.033333333333333</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-5.398655139289153</v>
+        <v>-1.766666666666666</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>-1.733333333333327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Olamide Zaccheaus</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>-37.17357910906298</v>
+          <t>Christian Kirk</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-36.89567430025447</v>
+        <v>12.03333333333333</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-6.831922611850058</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>54.13333333333333</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Scott Miller</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>-4.712041884816751</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>4.672897196261679</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>35.24734982332154</v>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Christian Kirk</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8.566666666666668</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>53.03333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>-1.886792452830194</v>
+          <t>Christian Kirk</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2.281368821292768</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.85171102661597</v>
+        <v>0.5666666666666682</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-1.099999999999994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
+          <t>DeAndre Carter</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>7.433333333333334</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>53.26666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>DeAndre Carter</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>39.36666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>DeAndre Carter</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>-1.833333333333332</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-13.90000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DeAndre Hopkins</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>58.73333333333334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>DeAndre Hopkins</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>12.11111111111111</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>7.644444444444445</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>53.14444444444445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>DeAndre Hopkins</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>-0.222222222222225</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-0.8555555555555552</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-5.588888888888896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>DJ Moore</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>52.96666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>DJ Moore</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>12.73333333333333</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>8.133333333333333</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>49.96666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>DJ Moore</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>-1.933333333333334</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>DK Metcalf</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>52.73333333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>DK Metcalf</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>DK Metcalf</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-2.733333333333327</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Jakobi Meyers</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>8.233333333333334</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>55.13333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Jakobi Meyers</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Jakobi Meyers</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>-0.4666666666666668</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>-0.2333333333333343</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.4666666666666686</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Kalif Raymond</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>17.23333333333333</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Kalif Raymond</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>13.23333333333333</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>10.16666666666667</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>60.43333333333334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Kalif Raymond</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>-1.433333333333334</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>3.533333333333339</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Mecole Hardman</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>15.36666666666667</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>10.13333333333333</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>57.83333333333334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Mecole Hardman</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>8.988888888888889</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>6.455555555555556</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>54.71111111111111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Mecole Hardman</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>-6.377777777777776</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>-3.677777777777779</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-3.122222222222227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Olamide Zaccheaus</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>55.13333333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Olamide Zaccheaus</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>13.63333333333333</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>8.266666666666666</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>51.36666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Olamide Zaccheaus</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>-8.066666666666666</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>-4.833333333333336</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>-3.766666666666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Scott Miller</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>12.73333333333333</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>37.73333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Scott Miller</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>7.466666666666666</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>51.03333333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Scott Miller</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Terry McLaurin</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>14.13333333333333</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>8.766666666666667</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Terry McLaurin</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>8.966666666666667</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Terry McLaurin</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>-0.2666666666666675</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
           <t>Trent Sherfield</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>-19.14357682619647</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>20.33898305084741</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>75.95573440643865</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>13.23333333333333</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>5.900000000000001</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>33.13333333333333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Trent Sherfield</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>7.099999999999999</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Trent Sherfield</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>-2.533333333333333</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1.199999999999998</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>25.16666666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Tyler Lockett</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>-9.367088607594946</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>-15.38461538461537</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>-4.975662520281261</v>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>61.63333333333335</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Tyler Lockett</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>11.93333333333333</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>8.066666666666668</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>58.56666666666666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Tyler Lockett</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>-1.233333333333334</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>-3.066666666666684</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>